--- a/Data/Generators_2030.xlsx
+++ b/Data/Generators_2030.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="48" yWindow="876" windowWidth="19572" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Dispatchable_2030" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>Bus</t>
   </si>
@@ -143,6 +143,27 @@
   </si>
   <si>
     <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>BAT1</t>
+  </si>
+  <si>
+    <t>BAT2</t>
+  </si>
+  <si>
+    <t>BAT3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -208,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +244,13 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,6 +789,75 @@
         <v>1282.9780000000001</v>
       </c>
       <c r="G11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>50</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
         <v>3</v>
       </c>
     </row>
@@ -773,9 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/Data/Generators_2030.xlsx
+++ b/Data/Generators_2030.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="48" yWindow="876" windowWidth="19572" windowHeight="14640"/>
@@ -145,9 +145,6 @@
     <t>Natural Gas</t>
   </si>
   <si>
-    <t>Battery</t>
-  </si>
-  <si>
     <t>BAT1</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,13 +794,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8">
         <v>3000</v>
@@ -817,13 +817,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8">
         <v>10000</v>
@@ -840,13 +840,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="8">
         <v>10000</v>
